--- a/public/report.xlsx
+++ b/public/report.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23" xml:space="preserve">
   <si>
     <t>Quiz name</t>
   </si>
@@ -32,6 +32,45 @@
     <t>Solar System Quiz</t>
   </si>
   <si>
+    <t>Zishan</t>
+  </si>
+  <si>
+    <t>Sheikh</t>
+  </si>
+  <si>
+    <t>zishann012@gmail.com</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>tailwinf</t>
+  </si>
+  <si>
+    <t>tailwind@gmail.com</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Biee</t>
+  </si>
+  <si>
+    <t>new@gmail.com</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Sharique</t>
+  </si>
+  <si>
+    <t>Hussain</t>
+  </si>
+  <si>
+    <t>sharique@gmail.com</t>
+  </si>
+  <si>
     <t>Little</t>
   </si>
   <si>
@@ -39,18 +78,6 @@
   </si>
   <si>
     <t>little@gmail.com</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>Sharique</t>
-  </si>
-  <si>
-    <t>Hussain</t>
-  </si>
-  <si>
-    <t>sharique@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -114,7 +141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -123,7 +150,7 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="22.0"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="23.1"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="25.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="19.8"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="22.0"/>
   </cols>
@@ -162,30 +189,90 @@
         <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
